--- a/money2Chinese/位数表.xlsx
+++ b/money2Chinese/位数表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="12">
   <si>
     <t>元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 - +0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+ - ++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三步将多0变换为+...+0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,14 +433,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AX50" sqref="AX50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="66" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="66" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.15">
@@ -805,7 +819,7 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:33" x14ac:dyDescent="0.15">
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -817,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R18" s="2" t="s">
         <v>6</v>
       </c>
@@ -867,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
         <v>1</v>
@@ -887,7 +901,7 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
@@ -907,7 +921,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -927,7 +941,7 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -953,7 +967,7 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -973,7 +987,7 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -993,7 +1007,7 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1013,7 +1027,10 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1047,7 +1064,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1067,7 +1087,10 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1087,7 +1110,10 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -1107,7 +1133,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -1133,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -1153,7 +1179,7 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="10:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:33" x14ac:dyDescent="0.15">
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
